--- a/Dataset/DATA/Employee_data.xlsx
+++ b/Dataset/DATA/Employee_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,9 +459,22 @@
           <t>dax</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1234</t>
+      <c r="C2" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dax1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>
